--- a/data/case1/14/P_device_14.xlsx
+++ b/data/case1/14/P_device_14.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.035993386534015966</v>
+        <v>-0.043648266759025681</v>
       </c>
       <c r="B1" s="0">
-        <v>0.03599338596698673</v>
+        <v>0.043648265827040789</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.023093583552953292</v>
+        <v>-0.023995201930941928</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.023093584153588944</v>
+        <v>0.023995200960853242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.016389379028673365</v>
+        <v>0.051862731487112269</v>
       </c>
       <c r="B3" s="0">
-        <v>0.016389378419677015</v>
+        <v>-0.051862732454726605</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.03544962401570273</v>
+        <v>-0.0035167632268820709</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.035449624605567269</v>
+        <v>0.0035167622195831374</v>
       </c>
     </row>
     <row r="5">
